--- a/comptiq/checklist.xlsx
+++ b/comptiq/checklist.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/comptiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7691DC33-5FEC-0B44-A346-4B3A7D317AD6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC55CD-2E0E-8F40-887E-A1B393263680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
   <si>
     <t>year</t>
   </si>
@@ -53,9 +53,6 @@
     <t>1986/05</t>
   </si>
   <si>
-    <t>198605.jpg</t>
-  </si>
-  <si>
     <t>1986/06</t>
   </si>
   <si>
@@ -77,28 +74,88 @@
     <t>1986/12</t>
   </si>
   <si>
-    <t>198606.jpg</t>
-  </si>
-  <si>
-    <t>198607.jpg</t>
-  </si>
-  <si>
-    <t>198608.jpg</t>
-  </si>
-  <si>
-    <t>198609.jpg</t>
-  </si>
-  <si>
-    <t>198610.jpg</t>
-  </si>
-  <si>
-    <t>198611.jpg</t>
-  </si>
-  <si>
-    <t>198612.jpg</t>
-  </si>
-  <si>
     <t>Kadokawa Shoten</t>
+  </si>
+  <si>
+    <t>1986/01</t>
+  </si>
+  <si>
+    <t>1986/02</t>
+  </si>
+  <si>
+    <t>1986/03</t>
+  </si>
+  <si>
+    <t>1986/04</t>
+  </si>
+  <si>
+    <t>1985/01</t>
+  </si>
+  <si>
+    <t>1985/03</t>
+  </si>
+  <si>
+    <t>1985/05</t>
+  </si>
+  <si>
+    <t>1985/07</t>
+  </si>
+  <si>
+    <t>1985/09</t>
+  </si>
+  <si>
+    <t>1985/11</t>
+  </si>
+  <si>
+    <t>1984/05</t>
+  </si>
+  <si>
+    <t>1984/07</t>
+  </si>
+  <si>
+    <t>1984/09</t>
+  </si>
+  <si>
+    <t>1984/11</t>
+  </si>
+  <si>
+    <t>1987/01</t>
+  </si>
+  <si>
+    <t>1987/02</t>
+  </si>
+  <si>
+    <t>1987/03</t>
+  </si>
+  <si>
+    <t>1987/04</t>
+  </si>
+  <si>
+    <t>1987/05</t>
+  </si>
+  <si>
+    <t>1987/06</t>
+  </si>
+  <si>
+    <t>1987/07</t>
+  </si>
+  <si>
+    <t>1987/08</t>
+  </si>
+  <si>
+    <t>1987/09</t>
+  </si>
+  <si>
+    <t>1987/10</t>
+  </si>
+  <si>
+    <t>1987/11</t>
+  </si>
+  <si>
+    <t>1987/12</t>
+  </si>
+  <si>
+    <t>1983.jpg</t>
   </si>
 </sst>
 </file>
@@ -148,9 +205,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -465,10 +523,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F7A66-A304-A041-AEDA-FBBD35392350}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2:D9"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -493,116 +551,543 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1986</v>
-      </c>
-      <c r="B2" t="s">
+    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1983</v>
+      </c>
+      <c r="B2" s="2">
+        <v>1983</v>
+      </c>
+      <c r="C2" s="2"/>
+      <c r="D2" t="s">
+        <v>13</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C3" s="2"/>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" s="2" t="str">
+        <f>CONCATENATE(SUBSTITUTE(B3,"/",""), ".jpg")</f>
+        <v>198405.jpg</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C4" s="2"/>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" s="2" t="str">
+        <f t="shared" ref="E4:E36" si="0">CONCATENATE(SUBSTITUTE(B4,"/",""), ".jpg")</f>
+        <v>198407.jpg</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" t="s">
+        <v>13</v>
+      </c>
+      <c r="E5" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198409.jpg</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1984</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" s="2"/>
+      <c r="D6" t="s">
+        <v>13</v>
+      </c>
+      <c r="E6" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198411.jpg</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="C7" s="2"/>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198501.jpg</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C8" s="2"/>
+      <c r="D8" t="s">
+        <v>13</v>
+      </c>
+      <c r="E8" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198503.jpg</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C9" s="2"/>
+      <c r="D9" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198505.jpg</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="2"/>
+      <c r="D10" t="s">
+        <v>13</v>
+      </c>
+      <c r="E10" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198507.jpg</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="2"/>
+      <c r="D11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E11" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198509.jpg</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1985</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" s="2"/>
+      <c r="D12" t="s">
+        <v>13</v>
+      </c>
+      <c r="E12" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198511.jpg</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="C13" s="2"/>
+      <c r="D13" t="s">
+        <v>13</v>
+      </c>
+      <c r="E13" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198601.jpg</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C14" s="2"/>
+      <c r="D14" t="s">
+        <v>13</v>
+      </c>
+      <c r="E14" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198602.jpg</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="2"/>
+      <c r="D15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198603.jpg</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1986</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C16" s="2"/>
+      <c r="D16" t="s">
+        <v>13</v>
+      </c>
+      <c r="E16" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198604.jpg</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>1986</v>
+      </c>
+      <c r="B17" t="s">
         <v>5</v>
       </c>
-      <c r="D2" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E17" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198605.jpg</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>1986</v>
+      </c>
+      <c r="B18" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>1986</v>
-      </c>
-      <c r="B3" t="s">
+      <c r="D18" t="s">
+        <v>13</v>
+      </c>
+      <c r="E18" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198606.jpg</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>1986</v>
+      </c>
+      <c r="B19" t="s">
         <v>7</v>
       </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>1986</v>
-      </c>
-      <c r="B4" t="s">
+      <c r="D19" t="s">
+        <v>13</v>
+      </c>
+      <c r="E19" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198607.jpg</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>1986</v>
+      </c>
+      <c r="B20" t="s">
         <v>8</v>
       </c>
-      <c r="D4" t="s">
-        <v>21</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>1986</v>
-      </c>
-      <c r="B5" t="s">
+      <c r="D20" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198608.jpg</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>1986</v>
+      </c>
+      <c r="B21" t="s">
         <v>9</v>
       </c>
-      <c r="D5" t="s">
-        <v>21</v>
-      </c>
-      <c r="E5" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>1986</v>
-      </c>
-      <c r="B6" t="s">
+      <c r="D21" t="s">
+        <v>13</v>
+      </c>
+      <c r="E21" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198609.jpg</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>1986</v>
+      </c>
+      <c r="B22" t="s">
         <v>10</v>
       </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>1986</v>
-      </c>
-      <c r="B7" t="s">
+      <c r="D22" t="s">
+        <v>13</v>
+      </c>
+      <c r="E22" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198610.jpg</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>1986</v>
+      </c>
+      <c r="B23" t="s">
         <v>11</v>
       </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>1986</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="D23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E23" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198611.jpg</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>1986</v>
+      </c>
+      <c r="B24" t="s">
         <v>12</v>
       </c>
-      <c r="D8" t="s">
-        <v>21</v>
-      </c>
-      <c r="E8" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>1986</v>
-      </c>
-      <c r="B9" t="s">
-        <v>13</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>20</v>
+      <c r="D24" t="s">
+        <v>13</v>
+      </c>
+      <c r="E24" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198612.jpg</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>1987</v>
+      </c>
+      <c r="B25" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" t="s">
+        <v>13</v>
+      </c>
+      <c r="E25" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198701.jpg</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>1987</v>
+      </c>
+      <c r="B26" t="s">
+        <v>29</v>
+      </c>
+      <c r="D26" t="s">
+        <v>13</v>
+      </c>
+      <c r="E26" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198702.jpg</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A27">
+        <v>1987</v>
+      </c>
+      <c r="B27" t="s">
+        <v>30</v>
+      </c>
+      <c r="D27" t="s">
+        <v>13</v>
+      </c>
+      <c r="E27" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198703.jpg</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A28">
+        <v>1987</v>
+      </c>
+      <c r="B28" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" t="s">
+        <v>13</v>
+      </c>
+      <c r="E28" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198704.jpg</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A29">
+        <v>1987</v>
+      </c>
+      <c r="B29" t="s">
+        <v>32</v>
+      </c>
+      <c r="D29" t="s">
+        <v>13</v>
+      </c>
+      <c r="E29" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198705.jpg</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A30">
+        <v>1987</v>
+      </c>
+      <c r="B30" t="s">
+        <v>33</v>
+      </c>
+      <c r="D30" t="s">
+        <v>13</v>
+      </c>
+      <c r="E30" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198706.jpg</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A31">
+        <v>1987</v>
+      </c>
+      <c r="B31" t="s">
+        <v>34</v>
+      </c>
+      <c r="D31" t="s">
+        <v>13</v>
+      </c>
+      <c r="E31" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198707.jpg</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A32">
+        <v>1987</v>
+      </c>
+      <c r="B32" t="s">
+        <v>35</v>
+      </c>
+      <c r="D32" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198708.jpg</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A33">
+        <v>1987</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D33" t="s">
+        <v>13</v>
+      </c>
+      <c r="E33" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198709.jpg</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A34">
+        <v>1987</v>
+      </c>
+      <c r="B34" t="s">
+        <v>37</v>
+      </c>
+      <c r="D34" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198710.jpg</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>1987</v>
+      </c>
+      <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="D35" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198711.jpg</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A36">
+        <v>1987</v>
+      </c>
+      <c r="B36" t="s">
+        <v>39</v>
+      </c>
+      <c r="D36" t="s">
+        <v>13</v>
+      </c>
+      <c r="E36" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198712.jpg</v>
       </c>
     </row>
   </sheetData>

--- a/comptiq/checklist.xlsx
+++ b/comptiq/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/comptiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57DC55CD-2E0E-8F40-887E-A1B393263680}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FFE9C0-83B8-DE43-B1FC-34D5952ED254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
   <si>
     <t>year</t>
   </si>
@@ -156,6 +156,78 @@
   </si>
   <si>
     <t>1983.jpg</t>
+  </si>
+  <si>
+    <t>1988/01</t>
+  </si>
+  <si>
+    <t>1988/02</t>
+  </si>
+  <si>
+    <t>1988/03</t>
+  </si>
+  <si>
+    <t>1988/04</t>
+  </si>
+  <si>
+    <t>1988/05</t>
+  </si>
+  <si>
+    <t>1988/06</t>
+  </si>
+  <si>
+    <t>1988/07</t>
+  </si>
+  <si>
+    <t>1988/08</t>
+  </si>
+  <si>
+    <t>1988/09</t>
+  </si>
+  <si>
+    <t>1988/10</t>
+  </si>
+  <si>
+    <t>1988/11</t>
+  </si>
+  <si>
+    <t>1988/12</t>
+  </si>
+  <si>
+    <t>1989/01</t>
+  </si>
+  <si>
+    <t>1989/02</t>
+  </si>
+  <si>
+    <t>1989/03</t>
+  </si>
+  <si>
+    <t>1989/04</t>
+  </si>
+  <si>
+    <t>1989/05</t>
+  </si>
+  <si>
+    <t>1989/06</t>
+  </si>
+  <si>
+    <t>1989/07</t>
+  </si>
+  <si>
+    <t>1989/08</t>
+  </si>
+  <si>
+    <t>1989/09</t>
+  </si>
+  <si>
+    <t>1989/10</t>
+  </si>
+  <si>
+    <t>1989/11</t>
+  </si>
+  <si>
+    <t>1989/12</t>
   </si>
 </sst>
 </file>
@@ -523,10 +595,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F7A66-A304-A041-AEDA-FBBD35392350}">
-  <dimension ref="A1:E36"/>
+  <dimension ref="A1:E60"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
+      <selection activeCell="E49" sqref="E49:E60"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -594,7 +666,7 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" ref="E4:E36" si="0">CONCATENATE(SUBSTITUTE(B4,"/",""), ".jpg")</f>
+        <f t="shared" ref="E4:E60" si="0">CONCATENATE(SUBSTITUTE(B4,"/",""), ".jpg")</f>
         <v>198407.jpg</v>
       </c>
     </row>
@@ -1088,6 +1160,366 @@
       <c r="E36" s="2" t="str">
         <f t="shared" si="0"/>
         <v>198712.jpg</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A37">
+        <v>1988</v>
+      </c>
+      <c r="B37" t="s">
+        <v>41</v>
+      </c>
+      <c r="D37" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198801.jpg</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A38">
+        <v>1988</v>
+      </c>
+      <c r="B38" t="s">
+        <v>42</v>
+      </c>
+      <c r="D38" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198802.jpg</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A39">
+        <v>1988</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="D39" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198803.jpg</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A40">
+        <v>1988</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198804.jpg</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A41">
+        <v>1988</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="D41" t="s">
+        <v>13</v>
+      </c>
+      <c r="E41" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198805.jpg</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A42">
+        <v>1988</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="D42" t="s">
+        <v>13</v>
+      </c>
+      <c r="E42" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198806.jpg</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A43">
+        <v>1988</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="D43" t="s">
+        <v>13</v>
+      </c>
+      <c r="E43" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198807.jpg</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A44">
+        <v>1988</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198808.jpg</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A45">
+        <v>1988</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198809.jpg</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A46">
+        <v>1988</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="D46" t="s">
+        <v>13</v>
+      </c>
+      <c r="E46" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198810.jpg</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>1988</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="D47" t="s">
+        <v>13</v>
+      </c>
+      <c r="E47" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198811.jpg</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>1988</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="D48" t="s">
+        <v>13</v>
+      </c>
+      <c r="E48" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198812.jpg</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A49">
+        <v>1989</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="D49" t="s">
+        <v>13</v>
+      </c>
+      <c r="E49" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198901.jpg</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A50">
+        <v>1989</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="D50" t="s">
+        <v>13</v>
+      </c>
+      <c r="E50" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198902.jpg</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A51">
+        <v>1989</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="D51" t="s">
+        <v>13</v>
+      </c>
+      <c r="E51" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198903.jpg</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A52">
+        <v>1989</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="D52" t="s">
+        <v>13</v>
+      </c>
+      <c r="E52" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198904.jpg</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A53">
+        <v>1989</v>
+      </c>
+      <c r="B53" t="s">
+        <v>57</v>
+      </c>
+      <c r="D53" t="s">
+        <v>13</v>
+      </c>
+      <c r="E53" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198905.jpg</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A54">
+        <v>1989</v>
+      </c>
+      <c r="B54" t="s">
+        <v>58</v>
+      </c>
+      <c r="D54" t="s">
+        <v>13</v>
+      </c>
+      <c r="E54" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198906.jpg</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A55">
+        <v>1989</v>
+      </c>
+      <c r="B55" t="s">
+        <v>59</v>
+      </c>
+      <c r="D55" t="s">
+        <v>13</v>
+      </c>
+      <c r="E55" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198907.jpg</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A56">
+        <v>1989</v>
+      </c>
+      <c r="B56" t="s">
+        <v>60</v>
+      </c>
+      <c r="D56" t="s">
+        <v>13</v>
+      </c>
+      <c r="E56" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198908.jpg</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A57">
+        <v>1989</v>
+      </c>
+      <c r="B57" t="s">
+        <v>61</v>
+      </c>
+      <c r="D57" t="s">
+        <v>13</v>
+      </c>
+      <c r="E57" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198909.jpg</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A58">
+        <v>1989</v>
+      </c>
+      <c r="B58" t="s">
+        <v>62</v>
+      </c>
+      <c r="D58" t="s">
+        <v>13</v>
+      </c>
+      <c r="E58" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198910.jpg</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>1989</v>
+      </c>
+      <c r="B59" t="s">
+        <v>63</v>
+      </c>
+      <c r="D59" t="s">
+        <v>13</v>
+      </c>
+      <c r="E59" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198911.jpg</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>1989</v>
+      </c>
+      <c r="B60" t="s">
+        <v>64</v>
+      </c>
+      <c r="D60" t="s">
+        <v>13</v>
+      </c>
+      <c r="E60" s="2" t="str">
+        <f t="shared" si="0"/>
+        <v>198912.jpg</v>
       </c>
     </row>
   </sheetData>

--- a/comptiq/checklist.xlsx
+++ b/comptiq/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/comptiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FFE9C0-83B8-DE43-B1FC-34D5952ED254}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7671FA4-52E7-6B47-9A29-99BDDF7F985A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
   <si>
     <t>year</t>
   </si>
@@ -228,6 +228,114 @@
   </si>
   <si>
     <t>1989/12</t>
+  </si>
+  <si>
+    <t>1990/01</t>
+  </si>
+  <si>
+    <t>1990/02</t>
+  </si>
+  <si>
+    <t>1990/03</t>
+  </si>
+  <si>
+    <t>1990/04</t>
+  </si>
+  <si>
+    <t>1990/05</t>
+  </si>
+  <si>
+    <t>1990/06</t>
+  </si>
+  <si>
+    <t>1990/07</t>
+  </si>
+  <si>
+    <t>1990/08</t>
+  </si>
+  <si>
+    <t>1990/09</t>
+  </si>
+  <si>
+    <t>1990/10</t>
+  </si>
+  <si>
+    <t>1990/11</t>
+  </si>
+  <si>
+    <t>1990/12</t>
+  </si>
+  <si>
+    <t>1991/01</t>
+  </si>
+  <si>
+    <t>1991/02</t>
+  </si>
+  <si>
+    <t>1991/03</t>
+  </si>
+  <si>
+    <t>1991/04</t>
+  </si>
+  <si>
+    <t>1991/05</t>
+  </si>
+  <si>
+    <t>1991/06</t>
+  </si>
+  <si>
+    <t>1991/07</t>
+  </si>
+  <si>
+    <t>1991/08</t>
+  </si>
+  <si>
+    <t>1991/09</t>
+  </si>
+  <si>
+    <t>1991/10</t>
+  </si>
+  <si>
+    <t>1991/11</t>
+  </si>
+  <si>
+    <t>1991/12</t>
+  </si>
+  <si>
+    <t>1992/01</t>
+  </si>
+  <si>
+    <t>1992/02</t>
+  </si>
+  <si>
+    <t>1992/03</t>
+  </si>
+  <si>
+    <t>1992/04</t>
+  </si>
+  <si>
+    <t>1992/05</t>
+  </si>
+  <si>
+    <t>1992/06</t>
+  </si>
+  <si>
+    <t>1992/07</t>
+  </si>
+  <si>
+    <t>1992/08</t>
+  </si>
+  <si>
+    <t>1992/09</t>
+  </si>
+  <si>
+    <t>1992/10</t>
+  </si>
+  <si>
+    <t>1992/11</t>
+  </si>
+  <si>
+    <t>1992/12</t>
   </si>
 </sst>
 </file>
@@ -277,10 +385,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -595,10 +706,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F7A66-A304-A041-AEDA-FBBD35392350}">
-  <dimension ref="A1:E60"/>
+  <dimension ref="A1:E96"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49:E60"/>
+    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61:E96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1518,8 +1629,584 @@
         <v>13</v>
       </c>
       <c r="E60" s="2" t="str">
-        <f t="shared" si="0"/>
+        <f>CONCATENATE(SUBSTITUTE(B60,"/",""), ".jpg")</f>
         <v>198912.jpg</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A61" s="3" t="str">
+        <f>LEFT(B61,4)</f>
+        <v>1990</v>
+      </c>
+      <c r="B61" t="s">
+        <v>65</v>
+      </c>
+      <c r="D61" t="s">
+        <v>13</v>
+      </c>
+      <c r="E61" s="2" t="str">
+        <f>CONCATENATE(SUBSTITUTE(B61,"/",""), ".jpg")</f>
+        <v>199001.jpg</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A62" s="3" t="str">
+        <f t="shared" ref="A62:A96" si="1">LEFT(B62,4)</f>
+        <v>1990</v>
+      </c>
+      <c r="B62" t="s">
+        <v>66</v>
+      </c>
+      <c r="D62" t="s">
+        <v>13</v>
+      </c>
+      <c r="E62" s="2" t="str">
+        <f t="shared" ref="E62:E96" si="2">CONCATENATE(SUBSTITUTE(B62,"/",""), ".jpg")</f>
+        <v>199002.jpg</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A63" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B63" t="s">
+        <v>67</v>
+      </c>
+      <c r="D63" t="s">
+        <v>13</v>
+      </c>
+      <c r="E63" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199003.jpg</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A64" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B64" t="s">
+        <v>68</v>
+      </c>
+      <c r="D64" t="s">
+        <v>13</v>
+      </c>
+      <c r="E64" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199004.jpg</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A65" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B65" t="s">
+        <v>69</v>
+      </c>
+      <c r="D65" t="s">
+        <v>13</v>
+      </c>
+      <c r="E65" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199005.jpg</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A66" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B66" t="s">
+        <v>70</v>
+      </c>
+      <c r="D66" t="s">
+        <v>13</v>
+      </c>
+      <c r="E66" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199006.jpg</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A67" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B67" t="s">
+        <v>71</v>
+      </c>
+      <c r="D67" t="s">
+        <v>13</v>
+      </c>
+      <c r="E67" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199007.jpg</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A68" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B68" t="s">
+        <v>72</v>
+      </c>
+      <c r="D68" t="s">
+        <v>13</v>
+      </c>
+      <c r="E68" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199008.jpg</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A69" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B69" t="s">
+        <v>73</v>
+      </c>
+      <c r="D69" t="s">
+        <v>13</v>
+      </c>
+      <c r="E69" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199009.jpg</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A70" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B70" t="s">
+        <v>74</v>
+      </c>
+      <c r="D70" t="s">
+        <v>13</v>
+      </c>
+      <c r="E70" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199010.jpg</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A71" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B71" t="s">
+        <v>75</v>
+      </c>
+      <c r="D71" t="s">
+        <v>13</v>
+      </c>
+      <c r="E71" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199011.jpg</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A72" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1990</v>
+      </c>
+      <c r="B72" t="s">
+        <v>76</v>
+      </c>
+      <c r="D72" t="s">
+        <v>13</v>
+      </c>
+      <c r="E72" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199012.jpg</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A73" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B73" t="s">
+        <v>77</v>
+      </c>
+      <c r="D73" t="s">
+        <v>13</v>
+      </c>
+      <c r="E73" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199101.jpg</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A74" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B74" t="s">
+        <v>78</v>
+      </c>
+      <c r="D74" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199102.jpg</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A75" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B75" t="s">
+        <v>79</v>
+      </c>
+      <c r="D75" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199103.jpg</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A76" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B76" t="s">
+        <v>80</v>
+      </c>
+      <c r="D76" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199104.jpg</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A77" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B77" t="s">
+        <v>81</v>
+      </c>
+      <c r="D77" t="s">
+        <v>13</v>
+      </c>
+      <c r="E77" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199105.jpg</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A78" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B78" t="s">
+        <v>82</v>
+      </c>
+      <c r="D78" t="s">
+        <v>13</v>
+      </c>
+      <c r="E78" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199106.jpg</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A79" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B79" t="s">
+        <v>83</v>
+      </c>
+      <c r="D79" t="s">
+        <v>13</v>
+      </c>
+      <c r="E79" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199107.jpg</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A80" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B80" t="s">
+        <v>84</v>
+      </c>
+      <c r="D80" t="s">
+        <v>13</v>
+      </c>
+      <c r="E80" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199108.jpg</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A81" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B81" t="s">
+        <v>85</v>
+      </c>
+      <c r="D81" t="s">
+        <v>13</v>
+      </c>
+      <c r="E81" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199109.jpg</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A82" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B82" t="s">
+        <v>86</v>
+      </c>
+      <c r="D82" t="s">
+        <v>13</v>
+      </c>
+      <c r="E82" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199110.jpg</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A83" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B83" t="s">
+        <v>87</v>
+      </c>
+      <c r="D83" t="s">
+        <v>13</v>
+      </c>
+      <c r="E83" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199111.jpg</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A84" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1991</v>
+      </c>
+      <c r="B84" t="s">
+        <v>88</v>
+      </c>
+      <c r="D84" t="s">
+        <v>13</v>
+      </c>
+      <c r="E84" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199112.jpg</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A85" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B85" t="s">
+        <v>89</v>
+      </c>
+      <c r="D85" t="s">
+        <v>13</v>
+      </c>
+      <c r="E85" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199201.jpg</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A86" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B86" t="s">
+        <v>90</v>
+      </c>
+      <c r="D86" t="s">
+        <v>13</v>
+      </c>
+      <c r="E86" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199202.jpg</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A87" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B87" t="s">
+        <v>91</v>
+      </c>
+      <c r="D87" t="s">
+        <v>13</v>
+      </c>
+      <c r="E87" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199203.jpg</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A88" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B88" t="s">
+        <v>92</v>
+      </c>
+      <c r="D88" t="s">
+        <v>13</v>
+      </c>
+      <c r="E88" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199204.jpg</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A89" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B89" t="s">
+        <v>93</v>
+      </c>
+      <c r="D89" t="s">
+        <v>13</v>
+      </c>
+      <c r="E89" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199205.jpg</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A90" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B90" t="s">
+        <v>94</v>
+      </c>
+      <c r="D90" t="s">
+        <v>13</v>
+      </c>
+      <c r="E90" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199206.jpg</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A91" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B91" t="s">
+        <v>95</v>
+      </c>
+      <c r="D91" t="s">
+        <v>13</v>
+      </c>
+      <c r="E91" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199207.jpg</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A92" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B92" t="s">
+        <v>96</v>
+      </c>
+      <c r="D92" t="s">
+        <v>13</v>
+      </c>
+      <c r="E92" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199208.jpg</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A93" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B93" t="s">
+        <v>97</v>
+      </c>
+      <c r="D93" t="s">
+        <v>13</v>
+      </c>
+      <c r="E93" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199209.jpg</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A94" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B94" t="s">
+        <v>98</v>
+      </c>
+      <c r="D94" t="s">
+        <v>13</v>
+      </c>
+      <c r="E94" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199210.jpg</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A95" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B95" t="s">
+        <v>99</v>
+      </c>
+      <c r="D95" t="s">
+        <v>13</v>
+      </c>
+      <c r="E95" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199211.jpg</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A96" s="3" t="str">
+        <f t="shared" si="1"/>
+        <v>1992</v>
+      </c>
+      <c r="B96" t="s">
+        <v>100</v>
+      </c>
+      <c r="D96" t="s">
+        <v>13</v>
+      </c>
+      <c r="E96" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199212.jpg</v>
       </c>
     </row>
   </sheetData>

--- a/comptiq/checklist.xlsx
+++ b/comptiq/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/comptiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7671FA4-52E7-6B47-9A29-99BDDF7F985A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21F8008-0B4F-D648-89EF-B45471C8FD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="195" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
   <si>
     <t>year</t>
   </si>
@@ -336,6 +336,12 @@
   </si>
   <si>
     <t>1992/12</t>
+  </si>
+  <si>
+    <t>product_type</t>
+  </si>
+  <si>
+    <t>periodical</t>
   </si>
 </sst>
 </file>
@@ -706,10 +712,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F7A66-A304-A041-AEDA-FBBD35392350}">
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61:E96"/>
+    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+      <selection activeCell="F2" sqref="F2:F96"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -717,7 +723,7 @@
     <col min="4" max="4" width="16.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -733,8 +739,11 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F1" s="1" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <v>1983</v>
       </c>
@@ -748,8 +757,11 @@
       <c r="E2" s="2" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F2" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <v>1984</v>
       </c>
@@ -764,8 +776,11 @@
         <f>CONCATENATE(SUBSTITUTE(B3,"/",""), ".jpg")</f>
         <v>198405.jpg</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F3" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <v>1984</v>
       </c>
@@ -777,11 +792,14 @@
         <v>13</v>
       </c>
       <c r="E4" s="2" t="str">
-        <f t="shared" ref="E4:E60" si="0">CONCATENATE(SUBSTITUTE(B4,"/",""), ".jpg")</f>
+        <f t="shared" ref="E4:E59" si="0">CONCATENATE(SUBSTITUTE(B4,"/",""), ".jpg")</f>
         <v>198407.jpg</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F4" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <v>1984</v>
       </c>
@@ -796,8 +814,11 @@
         <f t="shared" si="0"/>
         <v>198409.jpg</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F5" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <v>1984</v>
       </c>
@@ -812,8 +833,11 @@
         <f t="shared" si="0"/>
         <v>198411.jpg</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F6" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <v>1985</v>
       </c>
@@ -828,8 +852,11 @@
         <f t="shared" si="0"/>
         <v>198501.jpg</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F7" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <v>1985</v>
       </c>
@@ -844,8 +871,11 @@
         <f t="shared" si="0"/>
         <v>198503.jpg</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F8" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <v>1985</v>
       </c>
@@ -860,8 +890,11 @@
         <f t="shared" si="0"/>
         <v>198505.jpg</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F9" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <v>1985</v>
       </c>
@@ -876,8 +909,11 @@
         <f t="shared" si="0"/>
         <v>198507.jpg</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F10" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <v>1985</v>
       </c>
@@ -892,8 +928,11 @@
         <f t="shared" si="0"/>
         <v>198509.jpg</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F11" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <v>1985</v>
       </c>
@@ -908,8 +947,11 @@
         <f t="shared" si="0"/>
         <v>198511.jpg</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F12" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <v>1986</v>
       </c>
@@ -924,8 +966,11 @@
         <f t="shared" si="0"/>
         <v>198601.jpg</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F13" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <v>1986</v>
       </c>
@@ -940,8 +985,11 @@
         <f t="shared" si="0"/>
         <v>198602.jpg</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F14" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <v>1986</v>
       </c>
@@ -956,8 +1004,11 @@
         <f t="shared" si="0"/>
         <v>198603.jpg</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" s="1" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="F15" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <v>1986</v>
       </c>
@@ -972,8 +1023,11 @@
         <f t="shared" si="0"/>
         <v>198604.jpg</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F16" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>1986</v>
       </c>
@@ -987,8 +1041,11 @@
         <f t="shared" si="0"/>
         <v>198605.jpg</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F17" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>1986</v>
       </c>
@@ -1002,8 +1059,11 @@
         <f t="shared" si="0"/>
         <v>198606.jpg</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F18" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>1986</v>
       </c>
@@ -1017,8 +1077,11 @@
         <f t="shared" si="0"/>
         <v>198607.jpg</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F19" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>1986</v>
       </c>
@@ -1032,8 +1095,11 @@
         <f t="shared" si="0"/>
         <v>198608.jpg</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F20" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>1986</v>
       </c>
@@ -1047,8 +1113,11 @@
         <f t="shared" si="0"/>
         <v>198609.jpg</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F21" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>1986</v>
       </c>
@@ -1062,8 +1131,11 @@
         <f t="shared" si="0"/>
         <v>198610.jpg</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F22" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>1986</v>
       </c>
@@ -1077,8 +1149,11 @@
         <f t="shared" si="0"/>
         <v>198611.jpg</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F23" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>1986</v>
       </c>
@@ -1092,8 +1167,11 @@
         <f t="shared" si="0"/>
         <v>198612.jpg</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F24" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>1987</v>
       </c>
@@ -1107,8 +1185,11 @@
         <f t="shared" si="0"/>
         <v>198701.jpg</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F25" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>1987</v>
       </c>
@@ -1122,8 +1203,11 @@
         <f t="shared" si="0"/>
         <v>198702.jpg</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F26" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>1987</v>
       </c>
@@ -1137,8 +1221,11 @@
         <f t="shared" si="0"/>
         <v>198703.jpg</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F27" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>1987</v>
       </c>
@@ -1152,8 +1239,11 @@
         <f t="shared" si="0"/>
         <v>198704.jpg</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F28" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>1987</v>
       </c>
@@ -1167,8 +1257,11 @@
         <f t="shared" si="0"/>
         <v>198705.jpg</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F29" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>1987</v>
       </c>
@@ -1182,8 +1275,11 @@
         <f t="shared" si="0"/>
         <v>198706.jpg</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F30" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>1987</v>
       </c>
@@ -1197,8 +1293,11 @@
         <f t="shared" si="0"/>
         <v>198707.jpg</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F31" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>1987</v>
       </c>
@@ -1212,8 +1311,11 @@
         <f t="shared" si="0"/>
         <v>198708.jpg</v>
       </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F32" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>1987</v>
       </c>
@@ -1227,8 +1329,11 @@
         <f t="shared" si="0"/>
         <v>198709.jpg</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F33" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>1987</v>
       </c>
@@ -1242,8 +1347,11 @@
         <f t="shared" si="0"/>
         <v>198710.jpg</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F34" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>1987</v>
       </c>
@@ -1257,8 +1365,11 @@
         <f t="shared" si="0"/>
         <v>198711.jpg</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F35" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A36">
         <v>1987</v>
       </c>
@@ -1272,8 +1383,11 @@
         <f t="shared" si="0"/>
         <v>198712.jpg</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F36" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A37">
         <v>1988</v>
       </c>
@@ -1287,8 +1401,11 @@
         <f t="shared" si="0"/>
         <v>198801.jpg</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F37" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A38">
         <v>1988</v>
       </c>
@@ -1302,8 +1419,11 @@
         <f t="shared" si="0"/>
         <v>198802.jpg</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F38" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A39">
         <v>1988</v>
       </c>
@@ -1317,8 +1437,11 @@
         <f t="shared" si="0"/>
         <v>198803.jpg</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F39" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A40">
         <v>1988</v>
       </c>
@@ -1332,8 +1455,11 @@
         <f t="shared" si="0"/>
         <v>198804.jpg</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F40" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A41">
         <v>1988</v>
       </c>
@@ -1347,8 +1473,11 @@
         <f t="shared" si="0"/>
         <v>198805.jpg</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F41" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A42">
         <v>1988</v>
       </c>
@@ -1362,8 +1491,11 @@
         <f t="shared" si="0"/>
         <v>198806.jpg</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F42" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A43">
         <v>1988</v>
       </c>
@@ -1377,8 +1509,11 @@
         <f t="shared" si="0"/>
         <v>198807.jpg</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F43" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A44">
         <v>1988</v>
       </c>
@@ -1392,8 +1527,11 @@
         <f t="shared" si="0"/>
         <v>198808.jpg</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F44" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A45">
         <v>1988</v>
       </c>
@@ -1407,8 +1545,11 @@
         <f t="shared" si="0"/>
         <v>198809.jpg</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F45" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A46">
         <v>1988</v>
       </c>
@@ -1422,8 +1563,11 @@
         <f t="shared" si="0"/>
         <v>198810.jpg</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F46" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A47">
         <v>1988</v>
       </c>
@@ -1437,8 +1581,11 @@
         <f t="shared" si="0"/>
         <v>198811.jpg</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F47" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A48">
         <v>1988</v>
       </c>
@@ -1452,8 +1599,11 @@
         <f t="shared" si="0"/>
         <v>198812.jpg</v>
       </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F48" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A49">
         <v>1989</v>
       </c>
@@ -1467,8 +1617,11 @@
         <f t="shared" si="0"/>
         <v>198901.jpg</v>
       </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F49" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A50">
         <v>1989</v>
       </c>
@@ -1482,8 +1635,11 @@
         <f t="shared" si="0"/>
         <v>198902.jpg</v>
       </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F50" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A51">
         <v>1989</v>
       </c>
@@ -1497,8 +1653,11 @@
         <f t="shared" si="0"/>
         <v>198903.jpg</v>
       </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F51" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A52">
         <v>1989</v>
       </c>
@@ -1512,8 +1671,11 @@
         <f t="shared" si="0"/>
         <v>198904.jpg</v>
       </c>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F52" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A53">
         <v>1989</v>
       </c>
@@ -1527,8 +1689,11 @@
         <f t="shared" si="0"/>
         <v>198905.jpg</v>
       </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F53" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A54">
         <v>1989</v>
       </c>
@@ -1542,8 +1707,11 @@
         <f t="shared" si="0"/>
         <v>198906.jpg</v>
       </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F54" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A55">
         <v>1989</v>
       </c>
@@ -1557,8 +1725,11 @@
         <f t="shared" si="0"/>
         <v>198907.jpg</v>
       </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F55" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A56">
         <v>1989</v>
       </c>
@@ -1572,8 +1743,11 @@
         <f t="shared" si="0"/>
         <v>198908.jpg</v>
       </c>
-    </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F56" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A57">
         <v>1989</v>
       </c>
@@ -1587,8 +1761,11 @@
         <f t="shared" si="0"/>
         <v>198909.jpg</v>
       </c>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F57" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A58">
         <v>1989</v>
       </c>
@@ -1602,8 +1779,11 @@
         <f t="shared" si="0"/>
         <v>198910.jpg</v>
       </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F58" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A59">
         <v>1989</v>
       </c>
@@ -1617,8 +1797,11 @@
         <f t="shared" si="0"/>
         <v>198911.jpg</v>
       </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F59" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A60">
         <v>1989</v>
       </c>
@@ -1632,8 +1815,11 @@
         <f>CONCATENATE(SUBSTITUTE(B60,"/",""), ".jpg")</f>
         <v>198912.jpg</v>
       </c>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F60" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="61" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A61" s="3" t="str">
         <f>LEFT(B61,4)</f>
         <v>1990</v>
@@ -1648,8 +1834,11 @@
         <f>CONCATENATE(SUBSTITUTE(B61,"/",""), ".jpg")</f>
         <v>199001.jpg</v>
       </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F61" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="62" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A62" s="3" t="str">
         <f t="shared" ref="A62:A96" si="1">LEFT(B62,4)</f>
         <v>1990</v>
@@ -1664,8 +1853,11 @@
         <f t="shared" ref="E62:E96" si="2">CONCATENATE(SUBSTITUTE(B62,"/",""), ".jpg")</f>
         <v>199002.jpg</v>
       </c>
-    </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F62" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="63" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A63" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1680,8 +1872,11 @@
         <f t="shared" si="2"/>
         <v>199003.jpg</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F63" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="64" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A64" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1696,8 +1891,11 @@
         <f t="shared" si="2"/>
         <v>199004.jpg</v>
       </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F64" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A65" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1712,8 +1910,11 @@
         <f t="shared" si="2"/>
         <v>199005.jpg</v>
       </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F65" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="66" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A66" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1728,8 +1929,11 @@
         <f t="shared" si="2"/>
         <v>199006.jpg</v>
       </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F66" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="67" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A67" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1744,8 +1948,11 @@
         <f t="shared" si="2"/>
         <v>199007.jpg</v>
       </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F67" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="68" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A68" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1760,8 +1967,11 @@
         <f t="shared" si="2"/>
         <v>199008.jpg</v>
       </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F68" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="69" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A69" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1776,8 +1986,11 @@
         <f t="shared" si="2"/>
         <v>199009.jpg</v>
       </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F69" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="70" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A70" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1792,8 +2005,11 @@
         <f t="shared" si="2"/>
         <v>199010.jpg</v>
       </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F70" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A71" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1808,8 +2024,11 @@
         <f t="shared" si="2"/>
         <v>199011.jpg</v>
       </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F71" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A72" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1990</v>
@@ -1824,8 +2043,11 @@
         <f t="shared" si="2"/>
         <v>199012.jpg</v>
       </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F72" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1840,8 +2062,11 @@
         <f t="shared" si="2"/>
         <v>199101.jpg</v>
       </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F73" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="74" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A74" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1856,8 +2081,11 @@
         <f t="shared" si="2"/>
         <v>199102.jpg</v>
       </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F74" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A75" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1872,8 +2100,11 @@
         <f t="shared" si="2"/>
         <v>199103.jpg</v>
       </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F75" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A76" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1888,8 +2119,11 @@
         <f t="shared" si="2"/>
         <v>199104.jpg</v>
       </c>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F76" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1904,8 +2138,11 @@
         <f t="shared" si="2"/>
         <v>199105.jpg</v>
       </c>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F77" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A78" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1920,8 +2157,11 @@
         <f t="shared" si="2"/>
         <v>199106.jpg</v>
       </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F78" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A79" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1936,8 +2176,11 @@
         <f t="shared" si="2"/>
         <v>199107.jpg</v>
       </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F79" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A80" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1952,8 +2195,11 @@
         <f t="shared" si="2"/>
         <v>199108.jpg</v>
       </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F80" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="81" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1968,8 +2214,11 @@
         <f t="shared" si="2"/>
         <v>199109.jpg</v>
       </c>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F81" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A82" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -1984,8 +2233,11 @@
         <f t="shared" si="2"/>
         <v>199110.jpg</v>
       </c>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F82" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A83" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -2000,8 +2252,11 @@
         <f t="shared" si="2"/>
         <v>199111.jpg</v>
       </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F83" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A84" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1991</v>
@@ -2016,8 +2271,11 @@
         <f t="shared" si="2"/>
         <v>199112.jpg</v>
       </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F84" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A85" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2032,8 +2290,11 @@
         <f t="shared" si="2"/>
         <v>199201.jpg</v>
       </c>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F85" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A86" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2048,8 +2309,11 @@
         <f t="shared" si="2"/>
         <v>199202.jpg</v>
       </c>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F86" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A87" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2064,8 +2328,11 @@
         <f t="shared" si="2"/>
         <v>199203.jpg</v>
       </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F87" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A88" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2080,8 +2347,11 @@
         <f t="shared" si="2"/>
         <v>199204.jpg</v>
       </c>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F88" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A89" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2096,8 +2366,11 @@
         <f t="shared" si="2"/>
         <v>199205.jpg</v>
       </c>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F89" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A90" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2112,8 +2385,11 @@
         <f t="shared" si="2"/>
         <v>199206.jpg</v>
       </c>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F90" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A91" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2128,8 +2404,11 @@
         <f t="shared" si="2"/>
         <v>199207.jpg</v>
       </c>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F91" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A92" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2144,8 +2423,11 @@
         <f t="shared" si="2"/>
         <v>199208.jpg</v>
       </c>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F92" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A93" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2160,8 +2442,11 @@
         <f t="shared" si="2"/>
         <v>199209.jpg</v>
       </c>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F93" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A94" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2176,8 +2461,11 @@
         <f t="shared" si="2"/>
         <v>199210.jpg</v>
       </c>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F94" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2192,8 +2480,11 @@
         <f t="shared" si="2"/>
         <v>199211.jpg</v>
       </c>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="F95" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A96" s="3" t="str">
         <f t="shared" si="1"/>
         <v>1992</v>
@@ -2207,6 +2498,9 @@
       <c r="E96" s="2" t="str">
         <f t="shared" si="2"/>
         <v>199212.jpg</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>

--- a/comptiq/checklist.xlsx
+++ b/comptiq/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/comptiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E21F8008-0B4F-D648-89EF-B45471C8FD5D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13F44F-9F53-3440-BA1C-E984CD5473CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
@@ -714,7 +714,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F7A66-A304-A041-AEDA-FBBD35392350}">
   <dimension ref="A1:F96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A81" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F2" sqref="F2:F96"/>
     </sheetView>
   </sheetViews>

--- a/comptiq/checklist.xlsx
+++ b/comptiq/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10614"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/comptiq/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA13F44F-9F53-3440-BA1C-E984CD5473CB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D599EEE-0E68-804A-AB55-934C2AA433B8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="380" yWindow="460" windowWidth="28040" windowHeight="17040" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="26880" windowHeight="16340" xr2:uid="{6A734755-0472-A246-937B-814011631BB2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="103">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="107">
   <si>
     <t>year</t>
   </si>
@@ -342,6 +342,18 @@
   </si>
   <si>
     <t>periodical</t>
+  </si>
+  <si>
+    <t>1993/01</t>
+  </si>
+  <si>
+    <t>1993/02</t>
+  </si>
+  <si>
+    <t>1993/03</t>
+  </si>
+  <si>
+    <t>1993/04</t>
   </si>
 </sst>
 </file>
@@ -712,10 +724,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F83F7A66-A304-A041-AEDA-FBBD35392350}">
-  <dimension ref="A1:F96"/>
+  <dimension ref="A1:F100"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F2" sqref="F2:F96"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="F96" sqref="F96:F100"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1850,7 +1862,7 @@
         <v>13</v>
       </c>
       <c r="E62" s="2" t="str">
-        <f t="shared" ref="E62:E96" si="2">CONCATENATE(SUBSTITUTE(B62,"/",""), ".jpg")</f>
+        <f t="shared" ref="E62:E100" si="2">CONCATENATE(SUBSTITUTE(B62,"/",""), ".jpg")</f>
         <v>199002.jpg</v>
       </c>
       <c r="F62" s="2" t="s">
@@ -2500,6 +2512,78 @@
         <v>199212.jpg</v>
       </c>
       <c r="F96" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A97">
+        <v>1993</v>
+      </c>
+      <c r="B97" t="s">
+        <v>103</v>
+      </c>
+      <c r="D97" t="s">
+        <v>13</v>
+      </c>
+      <c r="E97" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199301.jpg</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A98">
+        <v>1993</v>
+      </c>
+      <c r="B98" t="s">
+        <v>104</v>
+      </c>
+      <c r="D98" t="s">
+        <v>13</v>
+      </c>
+      <c r="E98" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199302.jpg</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A99">
+        <v>1993</v>
+      </c>
+      <c r="B99" t="s">
+        <v>105</v>
+      </c>
+      <c r="D99" t="s">
+        <v>13</v>
+      </c>
+      <c r="E99" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199303.jpg</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A100">
+        <v>1993</v>
+      </c>
+      <c r="B100" t="s">
+        <v>106</v>
+      </c>
+      <c r="D100" t="s">
+        <v>13</v>
+      </c>
+      <c r="E100" s="2" t="str">
+        <f t="shared" si="2"/>
+        <v>199304.jpg</v>
+      </c>
+      <c r="F100" s="2" t="s">
         <v>102</v>
       </c>
     </row>
